--- a/P2_2 NH residents.xlsx
+++ b/P2_2 NH residents.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Oct 2020\For Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eithnesexton\Desktop\Model Stroke Paper R1 4 Mar\For Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8040" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34404" windowHeight="9480" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="ESRI Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Calc of Pr total pop in NH" sheetId="1" r:id="rId1"/>
     <sheet name="Pr in NH W" sheetId="7" r:id="rId2"/>
     <sheet name="Pr in NH M" sheetId="8" r:id="rId3"/>
     <sheet name="Stroke_Pr_NH" sheetId="11" r:id="rId4"/>
-    <sheet name="Sources" sheetId="10" r:id="rId5"/>
+    <sheet name="MetaData" sheetId="10" r:id="rId5"/>
+    <sheet name="Data Dictionary" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
   <si>
     <t>Age group</t>
   </si>
@@ -64,21 +65,9 @@
     <t>women</t>
   </si>
   <si>
-    <t>Source: ESRI LTC</t>
-  </si>
-  <si>
-    <t>Source: CSO</t>
-  </si>
-  <si>
     <t>Note: only includes bed included in the NHSS</t>
   </si>
   <si>
-    <t>Pr of total pop in NH</t>
-  </si>
-  <si>
-    <t>Sample is large here so no need for probabilistic analysis</t>
-  </si>
-  <si>
     <t>Age</t>
   </si>
   <si>
@@ -106,39 +95,127 @@
     <t>N_StrokePr</t>
   </si>
   <si>
-    <t>1. CSO Estimates for 2015 population. Available at statbank.cso.ie</t>
-  </si>
-  <si>
-    <t>2. Estimated numbers in residential long-term and intermediate care settings, Ireland, end-December 2015</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estimates developed by the Economic and Social Research Institute, supplied to StrokeCog project by Dr Maev-Ann Wren, December 19th 2018 </t>
   </si>
   <si>
-    <t>For further detail on data sources and estimation methods, see Chapter 3, Wren et al. (2017) Projections of Demand for Healthcare in Ireland, 2015-2030: First Report from th HIPPOCRATES Model. ESRI: Dublin.</t>
-  </si>
-  <si>
     <t xml:space="preserve">ESRI estimates developed from administrative data supplied by HSE Social Care Division, Department of Health, and HIQA; and from surveys undertaken by Department of Health and Nursing Homes Ireland. </t>
   </si>
   <si>
-    <t>Proportion of total population in Nursing Homes in Ireland (Pr in NH) derived from following data sources:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donnelly NA, Sexton E, Merriman NA, Bennett KE, Williams DJ, Horgan F, et al. The Prevalence of Cognitive Impairment on Admission to Nursing Home among Residents with and without Stroke: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Cross – Sectional Survey of Nursing Homes in Ireland. Int J Environ Res Public Health. 2020;17(19):7203. </t>
-  </si>
-  <si>
-    <t>Proportion of adults in nursing homes who have stroke and cognitive impairment (Stroke_Pr_NH and Stroke_CI_NH) derived from the StrokeCog Survey of Nursing Homes</t>
+    <t>Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference information or contact name/institution </t>
+  </si>
+  <si>
+    <t>Population represented</t>
+  </si>
+  <si>
+    <t>Data collection method</t>
+  </si>
+  <si>
+    <t>Year(s) of data collection</t>
+  </si>
+  <si>
+    <t>Sex and age range</t>
+  </si>
+  <si>
+    <t>Sample size</t>
+  </si>
+  <si>
+    <t>Central Statistics Office (Ireland). Population estimates from 1926 (Number) by Sex, Single Year of Age and Year. https://data.cso.ie/table/PEA11</t>
+  </si>
+  <si>
+    <t>Estimated by the Central Statistics Office using data from the 2012 and 2016 Censuses, and data on births, deaths and migration. See https://www.cso.ie/en/releasesandpublications/er/pme/populationandmigrationestimatesapril2017/, On-line ISSN 2009-5226</t>
+  </si>
+  <si>
+    <t>2012-2016</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Estimated total population resident in the Republic of Ireland in mid-April 2015</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>CSO Population Data</t>
+  </si>
+  <si>
+    <t>Estimated numbers in residential long-term and intermediate care settings, Ireland, end-December 2015</t>
+  </si>
+  <si>
+    <t>See Chapter 3, Wren et al. (2017) Projections of Demand for Healthcare in Ireland, 2015-2030: First Report from th HIPPOCRATES Model. ESRI: Dublin.</t>
+  </si>
+  <si>
+    <t>ESRI Long-term Care Data</t>
+  </si>
+  <si>
+    <t>StrokeCog Survey of Nursing Homes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Donnelly NA,  et al. The Prevalence of Cognitive Impairment on Admission to Nursing Home among Residents with and without Stroke: A Cross – Sectional Survey of Nursing Homes in Ireland. Int J Environ Res Public Health. 2020;17(19):7203. </t>
+  </si>
+  <si>
+    <t>Residents of nursing homes in the Republic of Ireland</t>
+  </si>
+  <si>
+    <t>Face to face interview survey with directors of nursing in each nursing home</t>
+  </si>
+  <si>
+    <t>Hospital or GP recorded diagnosis of stroke in nursing home records</t>
+  </si>
+  <si>
+    <t>Men and Women aged 18+ years</t>
+  </si>
+  <si>
+    <t>Men and Women aged 40-99 years</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>Calc of Pr total pop in NH; Pr in NH W; Pr in NH M</t>
+  </si>
+  <si>
+    <t>Stroke_Pr_NH</t>
+  </si>
+  <si>
+    <t>Measurement method (estimated numbers in nursing homes)</t>
+  </si>
+  <si>
+    <t>Diagnostic criteria (stroke)</t>
+  </si>
+  <si>
+    <t>Variable name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>Total estimated number of people resident in long-term care in Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total estimated population </t>
+  </si>
+  <si>
+    <t>Proportion of total population resident in a long-term care</t>
+  </si>
+  <si>
+    <t>Proportion of long-term care residents with a diagnosis of stroke</t>
+  </si>
+  <si>
+    <t>Total number of long-term care residents in the StrokeCog survey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="175" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -157,16 +234,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -189,9 +263,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -202,11 +276,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E10:E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,17 +613,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -563,6 +648,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -578,6 +666,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
@@ -593,6 +684,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -608,6 +702,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -623,6 +720,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
@@ -638,6 +738,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -653,6 +756,9 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -668,6 +774,9 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -683,6 +792,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -716,6 +828,9 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -731,6 +846,9 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -746,6 +864,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -761,6 +882,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
@@ -775,7 +899,10 @@
         <v>1.359615950377953E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
@@ -790,7 +917,10 @@
         <v>3.5201392501640748E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
@@ -805,7 +935,10 @@
         <v>8.7344942832946831E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -820,7 +953,10 @@
         <v>0.18427727903544827</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -835,7 +971,10 @@
         <v>0.32320208628003133</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -850,22 +989,9 @@
         <v>0.45766921821810475</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +1005,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,13 +1016,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -906,7 +1032,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="12">
         <v>3.8947753938075604E-5</v>
       </c>
     </row>
@@ -917,7 +1043,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="12">
         <v>4.8709908436822162E-4</v>
       </c>
     </row>
@@ -928,7 +1054,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>1.8091710519155921E-3</v>
       </c>
     </row>
@@ -939,7 +1065,7 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="12">
         <v>5.7459320985948394E-3</v>
       </c>
     </row>
@@ -950,7 +1076,7 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="12">
         <v>1.359615950377953E-2</v>
       </c>
     </row>
@@ -961,7 +1087,7 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="12">
         <v>3.5201392501640748E-2</v>
       </c>
     </row>
@@ -972,7 +1098,7 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="12">
         <v>8.7344942832946831E-2</v>
       </c>
     </row>
@@ -983,7 +1109,7 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="12">
         <v>0.18427727903544827</v>
       </c>
     </row>
@@ -994,7 +1120,7 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="12">
         <v>0.32320208628003133</v>
       </c>
     </row>
@@ -1005,7 +1131,7 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="12">
         <v>0.45766921821810475</v>
       </c>
     </row>
@@ -1020,23 +1146,24 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1046,7 +1173,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>5.3544344880746839E-5</v>
       </c>
     </row>
@@ -1057,7 +1184,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>5.5134105650527898E-4</v>
       </c>
     </row>
@@ -1068,7 +1195,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>2.3292138460465732E-3</v>
       </c>
     </row>
@@ -1079,7 +1206,7 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>6.4623170444582743E-3</v>
       </c>
     </row>
@@ -1090,7 +1217,7 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1.5310780416860884E-2</v>
       </c>
     </row>
@@ -1101,7 +1228,7 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>3.2669464105196687E-2</v>
       </c>
     </row>
@@ -1112,7 +1239,7 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>6.3861624100881684E-2</v>
       </c>
     </row>
@@ -1123,7 +1250,7 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.13943848403703143</v>
       </c>
     </row>
@@ -1134,7 +1261,7 @@
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.2413314476118448</v>
       </c>
     </row>
@@ -1145,7 +1272,7 @@
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.25129362566217972</v>
       </c>
     </row>
@@ -1160,7 +1287,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1172,23 +1299,23 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0.196850393700787</v>
       </c>
       <c r="D2">
@@ -1197,12 +1324,12 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0.16666666666666666</v>
       </c>
       <c r="D3">
@@ -1217,118 +1344,248 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="75" customWidth="1"/>
+    <col min="1" max="1" width="58.21875" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" customWidth="1"/>
+    <col min="3" max="3" width="65" customWidth="1"/>
+    <col min="4" max="4" width="59.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="B6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-    </row>
-    <row r="17" spans="1:1" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:J5"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>